--- a/docs/stat.xlsx
+++ b/docs/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\sxoli\9\distributed systems\Noobcash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEF276-36DC-4798-8550-823E12B4AD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF9197A-E559-46D2-AEEC-8981AD277CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FF97DC2B-B044-4015-88F0-45B5B1650B72}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,8 +503,12 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>160</v>
+      </c>
+      <c r="E3" s="1">
+        <v>120</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/stat.xlsx
+++ b/docs/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\sxoli\9\distributed systems\Noobcash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF9197A-E559-46D2-AEEC-8981AD277CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E0194F-8F29-4492-B1F5-2218B65ACBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FF97DC2B-B044-4015-88F0-45B5B1650B72}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,8 +577,12 @@
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,8 +595,12 @@
       <c r="C9" s="2">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>66</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/stat.xlsx
+++ b/docs/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\sxoli\9\distributed systems\Noobcash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E0194F-8F29-4492-B1F5-2218B65ACBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DDD5F-AC8E-460A-99B6-4A3BE3E0A2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FF97DC2B-B044-4015-88F0-45B5B1650B72}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,9 @@
         <v>4</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>150</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/stat.xlsx
+++ b/docs/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\sxoli\9\distributed systems\Noobcash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52DDD5F-AC8E-460A-99B6-4A3BE3E0A2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE4FBA-8F5B-4FC7-95C7-1EA559B93F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FF97DC2B-B044-4015-88F0-45B5B1650B72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>no</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>38.5</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,9 +524,11 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -537,9 +542,16 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>130</v>
+      </c>
+      <c r="F5" s="4">
+        <f>21/200</f>
+        <v>0.105</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">

--- a/docs/stat.xlsx
+++ b/docs/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\sxoli\9\distributed systems\Noobcash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DE4FBA-8F5B-4FC7-95C7-1EA559B93F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37172C-9EA5-4494-8C55-E5929E9B0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FF97DC2B-B044-4015-88F0-45B5B1650B72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>no</t>
   </si>
@@ -447,7 +447,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,11 +524,11 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
+      <c r="D4" s="1">
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4"/>
     </row>

--- a/docs/stat.xlsx
+++ b/docs/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Documents\sxoli\9\distributed systems\Noobcash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37172C-9EA5-4494-8C55-E5929E9B0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0C73D2-01AB-4E2A-BCBF-5C3F91F20624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{FF97DC2B-B044-4015-88F0-45B5B1650B72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>no</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>38.5</t>
+  </si>
+  <si>
+    <t>45.5</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1">
         <v>120</v>
@@ -525,10 +528,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -563,8 +566,12 @@
       <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,8 +584,12 @@
       <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>148</v>
+      </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,10 +603,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -613,7 +624,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="2">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -627,8 +638,12 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>13</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,8 +656,12 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>150</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,8 +674,12 @@
       <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,8 +692,12 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>132</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
   </sheetData>
